--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/licai/LanrenByOldBankCardSuccessful.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/licai/LanrenByOldBankCardSuccessful.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9345" windowHeight="3585"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9840" windowHeight="2715"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>flag</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -62,10 +62,6 @@
   </si>
   <si>
     <t>amount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>random</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -467,12 +463,13 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="12.625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -493,13 +490,13 @@
         <v>10</v>
       </c>
       <c r="F1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" t="s">
         <v>14</v>
-      </c>
-      <c r="H1" t="s">
-        <v>15</v>
       </c>
       <c r="I1" t="s">
         <v>2</v>
@@ -512,8 +509,8 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>11</v>
+      <c r="B2" s="1">
+        <v>18683917194</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -524,18 +521,18 @@
       <c r="E2">
         <v>11</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>11</v>
+      <c r="F2" s="1">
+        <v>4.3674212173748101E+18</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I2" s="2"/>
       <c r="J2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/licai/LanrenByOldBankCardSuccessful.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/licai/LanrenByOldBankCardSuccessful.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9840" windowHeight="2715"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9690" windowHeight="2715"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>flag</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -104,6 +104,14 @@
   </si>
   <si>
     <t>it789123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18683917194</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4367421217374810000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -509,8 +517,8 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
-        <v>18683917194</v>
+      <c r="B2" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -521,8 +529,8 @@
       <c r="E2">
         <v>11</v>
       </c>
-      <c r="F2" s="1">
-        <v>4.3674212173748101E+18</v>
+      <c r="F2" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>16</v>

--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/licai/LanrenByOldBankCardSuccessful.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/licai/LanrenByOldBankCardSuccessful.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9690" windowHeight="2715"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10140" windowHeight="3705"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>flag</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -50,10 +50,6 @@
   </si>
   <si>
     <t>comments</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>it789123</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -103,15 +99,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>${UserInfoUtils.getBindedCardUser(mobile_num)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>it789123</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>18683917194</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4367421217374810000</t>
+    <t>${BankCardUtils.getBankCardByMobile(${mobile})}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -471,7 +467,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="B2" sqref="B2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -492,19 +488,19 @@
         <v>4</v>
       </c>
       <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>10</v>
       </c>
-      <c r="F1" t="s">
-        <v>11</v>
-      </c>
       <c r="G1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" t="s">
         <v>13</v>
-      </c>
-      <c r="H1" t="s">
-        <v>14</v>
       </c>
       <c r="I1" t="s">
         <v>2</v>
@@ -518,29 +514,29 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2">
+        <v>1903172</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2">
-        <v>2781</v>
-      </c>
-      <c r="E2">
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="I2" s="2"/>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/licai/LanrenByOldBankCardSuccessful.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/licai/LanrenByOldBankCardSuccessful.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10140" windowHeight="3705"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12555" windowHeight="4635"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
   <si>
     <t>flag</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -108,6 +108,10 @@
   </si>
   <si>
     <t>${BankCardUtils.getBankCardByMobile(${mobile})}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${FinancePlanUtils.getFinanceId(12)}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -467,7 +471,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:G2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -519,8 +523,8 @@
       <c r="C2" t="s">
         <v>16</v>
       </c>
-      <c r="D2">
-        <v>1903172</v>
+      <c r="D2" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="E2">
         <v>1</v>

--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/licai/LanrenByOldBankCardSuccessful.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/licai/LanrenByOldBankCardSuccessful.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12555" windowHeight="4635"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10065" windowHeight="2445"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
     <t>flag</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -112,6 +112,10 @@
   </si>
   <si>
     <t>${FinancePlanUtils.getFinanceId(12)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>it7891234</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -533,7 +537,7 @@
         <v>17</v>
       </c>
       <c r="G2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>11</v>

--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/licai/LanrenByOldBankCardSuccessful.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/licai/LanrenByOldBankCardSuccessful.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>flag</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -65,15 +65,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0615</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>payPassword</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>smsCode</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -474,15 +466,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="12.625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -505,15 +496,12 @@
         <v>10</v>
       </c>
       <c r="G1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H1" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="I1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -522,29 +510,26 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
         <v>17</v>
       </c>
-      <c r="G2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" s="2"/>
-      <c r="J2" t="s">
-        <v>14</v>
+      <c r="H2" s="2"/>
+      <c r="I2" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/licai/LanrenByOldBankCardSuccessful.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/licai/LanrenByOldBankCardSuccessful.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10065" windowHeight="2445"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11055" windowHeight="1800"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
     <t>flag</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -108,6 +108,14 @@
   </si>
   <si>
     <t>it7891234</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>checkCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${ConstantUtils.getCorrectCheckCode()}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -464,19 +472,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="12.625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -487,25 +495,28 @@
         <v>4</v>
       </c>
       <c r="D1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>10</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>11</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>2</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -516,19 +527,22 @@
         <v>14</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>1</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="2"/>
-      <c r="I2" t="s">
+      <c r="I2" s="2"/>
+      <c r="J2" t="s">
         <v>12</v>
       </c>
     </row>
